--- a/xlsx/country_comparison/conjoint_r_mean.xlsx
+++ b/xlsx/country_comparison/conjoint_r_mean.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533925920664392</v>
+        <v>0.469348959719292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.506245447687487</v>
+        <v>0.52797712148325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.464648213495476</v>
+        <v>0.575459154996921</v>
       </c>
       <c r="E2" t="n">
-        <v>0.538620944501814</v>
+        <v>0.508831293471374</v>
       </c>
       <c r="F2" t="n">
-        <v>0.604991302855216</v>
+        <v>0.501818808151066</v>
       </c>
       <c r="G2" t="n">
-        <v>0.574542866003825</v>
+        <v>0.518554917937033</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_r_mean.xlsx
+++ b/xlsx/country_comparison/conjoint_r_mean.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.469348959719292</v>
+        <v>0.538443468264634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52797712148325</v>
+        <v>0.541187502351268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.575459154996921</v>
+        <v>0.503715145711722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.508831293471374</v>
+        <v>0.54919037812932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.501818808151066</v>
+        <v>0.565602121213899</v>
       </c>
       <c r="G2" t="n">
-        <v>0.518554917937033</v>
+        <v>0.616625727793589</v>
       </c>
     </row>
   </sheetData>
